--- a/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c5.xlsx
+++ b/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c5.xlsx
@@ -2279,7 +2279,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.6769312</v>
+        <v>11.6783744</v>
       </c>
       <c r="F2" t="n">
         <v>0.342144</v>
@@ -2311,7 +2311,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.175568</v>
+        <v>2.1624928</v>
       </c>
       <c r="F3" t="n">
         <v>0.335664</v>
@@ -2343,7 +2343,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.897544</v>
+        <v>0.9023760000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.336064</v>
@@ -2375,7 +2375,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.414512</v>
+        <v>1.430928</v>
       </c>
       <c r="F5" t="n">
         <v>0.334288</v>
@@ -2407,7 +2407,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9514928</v>
+        <v>0.9591919999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.327968</v>
@@ -2439,7 +2439,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.283008</v>
+        <v>0.2855808</v>
       </c>
       <c r="F7" t="n">
         <v>0.328704</v>
@@ -2471,7 +2471,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.098208</v>
+        <v>0.0899712</v>
       </c>
       <c r="F8" t="n">
         <v>0.327296</v>
@@ -2497,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8647536000000001</v>
+        <v>0.8639312</v>
       </c>
       <c r="F9" t="n">
         <v>0.346256</v>
@@ -2529,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5163264000000001</v>
+        <v>0.5197824000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.3456</v>
@@ -2561,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.754992</v>
+        <v>0.753816</v>
       </c>
       <c r="F11" t="n">
         <v>0.343824</v>
@@ -2593,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2192928</v>
+        <v>1.2334432</v>
       </c>
       <c r="F12" t="n">
         <v>0.3460800000000001</v>
@@ -2625,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3232</v>
+        <v>3247</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.55723199999999</v>
+        <v>12.55878399999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.327712</v>
@@ -2657,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.854296000000001</v>
+        <v>4.825121600000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.3284</v>
@@ -2689,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8761456</v>
+        <v>0.8808624</v>
       </c>
       <c r="F15" t="n">
         <v>0.323984</v>
@@ -2721,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8702144000000001</v>
+        <v>0.8803135999999999</v>
       </c>
       <c r="F16" t="n">
         <v>0.320608</v>
@@ -2753,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.388088</v>
+        <v>1.39932</v>
       </c>
       <c r="F17" t="n">
         <v>0.321552</v>
@@ -2785,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.44352</v>
+        <v>0.447552</v>
       </c>
       <c r="F18" t="n">
         <v>0.322272</v>
@@ -2817,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.135904</v>
+        <v>0.1245056</v>
       </c>
       <c r="F19" t="n">
         <v>0.32096</v>
@@ -2855,7 +2855,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.871728</v>
+        <v>62.88014400000002</v>
       </c>
       <c r="F20" t="n">
         <v>0.04208000000000001</v>
@@ -2887,7 +2887,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.7444352</v>
+        <v>66.75336960000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.044672</v>
@@ -2919,7 +2919,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.6177536</v>
+        <v>82.62881280000002</v>
       </c>
       <c r="F22" t="n">
         <v>0.055296</v>
@@ -2951,7 +2951,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.2121504</v>
+        <v>254.2461792000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.170144</v>
@@ -3064,34 +3064,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D2" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="L2" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3135,34 +3135,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D3" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J3" t="n">
         <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="L3" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3206,34 +3206,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D4" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J4" t="n">
         <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="L4" t="n">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3277,34 +3277,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D5" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I5" t="n">
         <v>421</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K5" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L5" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3348,34 +3348,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D6" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J6" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K6" t="n">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="L6" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3506,34 +3506,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>74.375</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5</v>
+        <v>18.125</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>36.125</v>
+        <v>38.25</v>
       </c>
       <c r="G2" t="n">
-        <v>10.125</v>
+        <v>12.125</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.875</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5</v>
+        <v>52.375</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>37.375</v>
       </c>
       <c r="K2" t="n">
-        <v>112.375</v>
+        <v>112</v>
       </c>
       <c r="L2" t="n">
-        <v>25.625</v>
+        <v>25.25</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3577,34 +3577,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3125</v>
+        <v>112.5</v>
       </c>
       <c r="D3" t="n">
-        <v>27.1875</v>
+        <v>28.125</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55.3125</v>
+        <v>54.9375</v>
       </c>
       <c r="G3" t="n">
-        <v>16.6875</v>
+        <v>15.9375</v>
       </c>
       <c r="H3" t="n">
-        <v>5.625</v>
+        <v>5.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>78.75</v>
+        <v>78.375</v>
       </c>
       <c r="J3" t="n">
         <v>56.625</v>
       </c>
       <c r="K3" t="n">
-        <v>169.6875</v>
+        <v>168.5625</v>
       </c>
       <c r="L3" t="n">
-        <v>39.1875</v>
+        <v>39.375</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3648,34 +3648,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.6875</v>
+        <v>130.15625</v>
       </c>
       <c r="D4" t="n">
-        <v>32.375</v>
+        <v>33.46875</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5</v>
+        <v>64.3125</v>
       </c>
       <c r="G4" t="n">
-        <v>20.78125</v>
+        <v>17.5</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5.6875</v>
       </c>
       <c r="I4" t="n">
-        <v>92.09375</v>
+        <v>91.875</v>
       </c>
       <c r="J4" t="n">
         <v>65.84375</v>
       </c>
       <c r="K4" t="n">
-        <v>195.5625</v>
+        <v>197.96875</v>
       </c>
       <c r="L4" t="n">
-        <v>44.40625</v>
+        <v>47.46875</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3719,34 +3719,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>141.09375</v>
+        <v>139.921875</v>
       </c>
       <c r="D5" t="n">
-        <v>35.859375</v>
+        <v>34.921875</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.3125</v>
+        <v>70.78125</v>
       </c>
       <c r="G5" t="n">
-        <v>20.390625</v>
+        <v>21.796875</v>
       </c>
       <c r="H5" t="n">
-        <v>6.09375</v>
+        <v>8.203125</v>
       </c>
       <c r="I5" t="n">
         <v>98.671875</v>
       </c>
       <c r="J5" t="n">
-        <v>70.078125</v>
+        <v>71.015625</v>
       </c>
       <c r="K5" t="n">
-        <v>210</v>
+        <v>210.234375</v>
       </c>
       <c r="L5" t="n">
-        <v>48.515625</v>
+        <v>47.34375</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3790,34 +3790,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>143.375</v>
+        <v>142.890625</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0859375</v>
+        <v>36.328125</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>71.4453125</v>
+        <v>72.65625</v>
       </c>
       <c r="G6" t="n">
-        <v>21.3125</v>
+        <v>21.5546875</v>
       </c>
       <c r="H6" t="n">
-        <v>8.9609375</v>
+        <v>5.5703125</v>
       </c>
       <c r="I6" t="n">
-        <v>101.9609375</v>
+        <v>102.4453125</v>
       </c>
       <c r="J6" t="n">
-        <v>71.6875</v>
+        <v>72.4140625</v>
       </c>
       <c r="K6" t="n">
-        <v>217.96875</v>
+        <v>215.546875</v>
       </c>
       <c r="L6" t="n">
-        <v>50.859375</v>
+        <v>52.0703125</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50358</v>
+        <v>50470</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>522935</v>
+        <v>523005</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>522935</v>
+        <v>523005</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4930530</v>
+        <v>4931190.000000001</v>
       </c>
     </row>
   </sheetData>
